--- a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/PM演習_管理ツール_矢吹研A班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawasaki\Desktop\PM演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Documents\GitHub\yabukiA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -1091,6 +1091,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>川崎</t>
+    <rPh sb="0" eb="2">
+      <t>カワサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1724,22 +1731,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1756,29 +1747,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1796,29 +1809,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2962,11 +2969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="148008064"/>
-        <c:axId val="349621224"/>
+        <c:axId val="278700520"/>
+        <c:axId val="278701696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="148008064"/>
+        <c:axId val="278700520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,14 +2983,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349621224"/>
+        <c:crossAx val="278701696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="349621224"/>
+        <c:axId val="278701696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3011,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148008064"/>
+        <c:crossAx val="278700520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3498,10 +3505,10 @@
   <dimension ref="A1:DO233"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3520,61 +3527,63 @@
       <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="86"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84">
         <v>11.4</v>
       </c>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="80" t="s">
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="77" t="s">
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="74"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="86"/>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
@@ -3603,25 +3612,25 @@
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:118" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="80" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="49" t="s">
@@ -3745,10 +3754,10 @@
       <c r="DN3" s="51"/>
     </row>
     <row r="4" spans="1:118" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="76"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="53" t="str">
         <f>データ!A2</f>
         <v>川崎</v>
@@ -3765,7 +3774,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>小山</v>
       </c>
-      <c r="I4" s="79"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="54" t="s">
         <v>21</v>
       </c>
@@ -4095,20 +4104,20 @@
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A5" s="64">
-        <v>0</v>
-      </c>
-      <c r="B5" s="68" t="str">
+      <c r="A5" s="70">
+        <v>0</v>
+      </c>
+      <c r="B5" s="64" t="str">
         <f>B1</f>
         <v>コンビニ弁当データベース開発</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="84"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="55" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DN5)/データ!$D$2,"")</f>
         <v/>
@@ -4223,15 +4232,15 @@
       <c r="DN5" s="19"/>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="84"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="56" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DN6)/データ!$D$2,"")</f>
         <v/>
@@ -4346,19 +4355,19 @@
       <c r="DN6" s="21"/>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A7" s="64">
+      <c r="A7" s="70">
         <v>1</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="84"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="55" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DN7)/データ!$D$2,"")</f>
         <v/>
@@ -4473,15 +4482,15 @@
       <c r="DN7" s="19"/>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="84"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="56" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DN8)/データ!$D$2,"")</f>
         <v/>
@@ -4596,23 +4605,23 @@
       <c r="DN8" s="21"/>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A9" s="64">
+      <c r="A9" s="70">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="66">
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="68">
         <v>1</v>
       </c>
       <c r="J9" s="55">
@@ -4739,15 +4748,15 @@
       <c r="DN9" s="19"/>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="67"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="56">
         <f>IF(C9&lt;&gt;"",SUM(K10:DN10)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -4872,25 +4881,25 @@
       <c r="DN10" s="21"/>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A11" s="64">
+      <c r="A11" s="70">
         <v>1.2</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="66">
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="68">
         <v>0.8</v>
       </c>
       <c r="J11" s="55">
@@ -5017,15 +5026,15 @@
       <c r="DN11" s="19"/>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="67"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="69"/>
       <c r="J12" s="56">
         <f>IF(C11&lt;&gt;"",SUM(K12:DN12)/データ!$D$2,"")</f>
         <v>4.875</v>
@@ -5156,25 +5165,25 @@
       <c r="DN12" s="21"/>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A13" s="64">
+      <c r="A13" s="70">
         <v>1.3</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="66">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="68">
         <v>0.8</v>
       </c>
       <c r="J13" s="55">
@@ -5293,15 +5302,15 @@
       <c r="DN13" s="19"/>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="67"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="56">
         <f>IF(C13&lt;&gt;"",SUM(K14:DN14)/データ!$D$2,"")</f>
         <v>0.25</v>
@@ -5420,25 +5429,25 @@
       <c r="DN14" s="21"/>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A15" s="68">
+      <c r="A15" s="64">
         <v>1.4</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="66">
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="68">
         <v>0.8</v>
       </c>
       <c r="J15" s="55">
@@ -5565,15 +5574,15 @@
       <c r="DN15" s="19"/>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="67"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="69"/>
       <c r="J16" s="56">
         <f>IF(C15&lt;&gt;"",SUM(K16:DN16)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5698,31 +5707,31 @@
       <c r="DN16" s="21"/>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A17" s="68">
+      <c r="A17" s="64">
         <v>2</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="66"/>
+      <c r="I17" s="68"/>
       <c r="J17" s="55">
         <f>IF(C17&lt;&gt;"",SUM(K17:DN17)/データ!$D$2,"")</f>
         <v>10</v>
@@ -5851,15 +5860,15 @@
       <c r="DN17" s="19"/>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="67"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="56">
         <f>IF(C17&lt;&gt;"",SUM(K18:DN18)/データ!$D$2,"")</f>
         <v>2.75</v>
@@ -5988,19 +5997,19 @@
       <c r="DN18" s="21"/>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A19" s="68">
+      <c r="A19" s="64">
         <v>3</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="66"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="55" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DN19)/データ!$D$2,"")</f>
         <v/>
@@ -6115,15 +6124,15 @@
       <c r="DN19" s="19"/>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="67"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="69"/>
       <c r="J20" s="56" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DN20)/データ!$D$2,"")</f>
         <v/>
@@ -6238,27 +6247,27 @@
       <c r="DN20" s="21"/>
     </row>
     <row r="21" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68">
+      <c r="A21" s="64">
         <v>3.1</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70" t="s">
+      <c r="F21" s="66"/>
+      <c r="G21" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="66"/>
+      <c r="I21" s="68"/>
       <c r="J21" s="55">
         <f>IF(C21&lt;&gt;"",SUM(K21:DN21)/データ!$D$2,"")</f>
         <v>4</v>
@@ -6385,15 +6394,15 @@
       <c r="DN21" s="19"/>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="67"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="69"/>
       <c r="J22" s="56">
         <f>IF(C21&lt;&gt;"",SUM(K22:DN22)/データ!$D$2,"")</f>
         <v>0</v>
@@ -6508,25 +6517,25 @@
       <c r="DN22" s="21"/>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A23" s="68">
+      <c r="A23" s="64">
         <v>3.2</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70" t="s">
+      <c r="F23" s="66"/>
+      <c r="G23" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="68"/>
       <c r="J23" s="55">
         <f>IF(C23&lt;&gt;"",SUM(K23:DN23)/データ!$D$2,"")</f>
         <v>4</v>
@@ -6651,15 +6660,15 @@
       <c r="DN23" s="19"/>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="67"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="69"/>
       <c r="J24" s="56">
         <f>IF(C23&lt;&gt;"",SUM(K24:DN24)/データ!$D$2,"")</f>
         <v>0</v>
@@ -6774,25 +6783,25 @@
       <c r="DN24" s="21"/>
     </row>
     <row r="25" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="68">
+      <c r="A25" s="64">
         <v>4</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="68"/>
       <c r="J25" s="55">
         <f>IF(C25&lt;&gt;"",SUM(K25:DN25)/データ!$D$2,"")</f>
         <v>5</v>
@@ -6915,15 +6924,15 @@
       <c r="DN25" s="19"/>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="67"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="69"/>
       <c r="J26" s="56">
         <f>IF(C25&lt;&gt;"",SUM(K26:DN26)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7038,19 +7047,19 @@
       <c r="DN26" s="21"/>
     </row>
     <row r="27" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="68">
+      <c r="A27" s="64">
         <v>5</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="66"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="55" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DN27)/データ!$D$2,"")</f>
         <v/>
@@ -7165,15 +7174,15 @@
       <c r="DN27" s="19"/>
     </row>
     <row r="28" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="67"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="69"/>
       <c r="J28" s="56" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DN28)/データ!$D$2,"")</f>
         <v/>
@@ -7288,27 +7297,27 @@
       <c r="DN28" s="21"/>
     </row>
     <row r="29" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="68">
+      <c r="A29" s="64">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70" t="s">
+      <c r="G29" s="66"/>
+      <c r="H29" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="I29" s="66"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="55">
         <f>IF(C29&lt;&gt;"",SUM(K29:DN29)/データ!$D$2,"")</f>
         <v>4.5</v>
@@ -7435,15 +7444,15 @@
       <c r="DN29" s="19"/>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="67"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="69"/>
       <c r="J30" s="56">
         <f>IF(C29&lt;&gt;"",SUM(K30:DN30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7558,27 +7567,27 @@
       <c r="DN30" s="21"/>
     </row>
     <row r="31" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="68">
+      <c r="A31" s="64">
         <v>5.2</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70" t="s">
+      <c r="F31" s="66"/>
+      <c r="G31" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="66"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="55">
         <f>IF(C31&lt;&gt;"",SUM(K31:DN31)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -7705,15 +7714,15 @@
       <c r="DN31" s="19"/>
     </row>
     <row r="32" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="67"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="56">
         <f>IF(C31&lt;&gt;"",SUM(K32:DN32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7828,29 +7837,29 @@
       <c r="DN32" s="21"/>
     </row>
     <row r="33" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="68">
+      <c r="A33" s="64">
         <v>6</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="55">
         <f>IF(C33&lt;&gt;"",SUM(K33:DN33)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -7977,15 +7986,15 @@
       <c r="DN33" s="19"/>
     </row>
     <row r="34" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="67"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="56">
         <f>IF(C33&lt;&gt;"",SUM(K34:DN34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8100,29 +8109,29 @@
       <c r="DN34" s="21"/>
     </row>
     <row r="35" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A35" s="68">
+      <c r="A35" s="64">
         <v>7</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="64"/>
+      <c r="E35" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="66"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="55">
         <f>IF(C35&lt;&gt;"",SUM(K35:DN35)/データ!$D$2,"")</f>
         <v>10</v>
@@ -8265,15 +8274,15 @@
       <c r="DN35" s="19"/>
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="67"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="56">
         <f>IF(C35&lt;&gt;"",SUM(K36:DN36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8388,23 +8397,23 @@
       <c r="DN36" s="21"/>
     </row>
     <row r="37" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A37" s="68">
+      <c r="A37" s="64">
         <v>8</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="55">
         <f>IF(C37&lt;&gt;"",SUM(K37:DN37)/データ!$D$2,"")</f>
         <v>5</v>
@@ -8539,15 +8548,15 @@
       <c r="DN37" s="19"/>
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="67"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="69"/>
       <c r="J38" s="56">
         <f>IF(C37&lt;&gt;"",SUM(K38:DN38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8662,19 +8671,19 @@
       <c r="DN38" s="21"/>
     </row>
     <row r="39" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68">
+      <c r="A39" s="64">
         <v>9</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="66"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="55" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DN39)/データ!$D$2,"")</f>
         <v/>
@@ -8789,15 +8798,15 @@
       <c r="DN39" s="19"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="67"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="69"/>
       <c r="J40" s="56" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DN40)/データ!$D$2,"")</f>
         <v/>
@@ -8912,25 +8921,25 @@
       <c r="DN40" s="21"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A41" s="68">
+      <c r="A41" s="64">
         <v>9.1</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68" t="s">
+      <c r="B41" s="64"/>
+      <c r="C41" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="55">
         <f>IF(C41&lt;&gt;"",SUM(K41:DN41)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -9051,15 +9060,15 @@
       <c r="DN41" s="19"/>
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="67"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="69"/>
       <c r="J42" s="56">
         <f>IF(C41&lt;&gt;"",SUM(K42:DN42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9174,25 +9183,25 @@
       <c r="DN42" s="21"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A43" s="68">
+      <c r="A43" s="64">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+      <c r="B43" s="64"/>
+      <c r="C43" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70" t="s">
+      <c r="F43" s="66"/>
+      <c r="G43" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="55">
         <f>IF(C43&lt;&gt;"",SUM(K43:DN43)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9313,15 +9322,15 @@
       <c r="DN43" s="19"/>
     </row>
     <row r="44" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="67"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="69"/>
       <c r="J44" s="56">
         <f>IF(C43&lt;&gt;"",SUM(K44:DN44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9436,19 +9445,19 @@
       <c r="DN44" s="21"/>
     </row>
     <row r="45" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="68">
+      <c r="A45" s="64">
         <v>10</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="66"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="55" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DN45)/データ!$D$2,"")</f>
         <v/>
@@ -9563,15 +9572,15 @@
       <c r="DN45" s="19"/>
     </row>
     <row r="46" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="67"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="69"/>
       <c r="J46" s="56" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DN46)/データ!$D$2,"")</f>
         <v/>
@@ -9686,23 +9695,23 @@
       <c r="DN46" s="21"/>
     </row>
     <row r="47" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A47" s="68">
+      <c r="A47" s="64">
         <v>10.1</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="64"/>
+      <c r="C47" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="55">
         <f>IF(C47&lt;&gt;"",SUM(K47:DN47)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9823,15 +9832,15 @@
       <c r="DN47" s="19"/>
     </row>
     <row r="48" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="67"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="69"/>
       <c r="J48" s="56">
         <f>IF(C47&lt;&gt;"",SUM(K48:DN48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9946,23 +9955,23 @@
       <c r="DN48" s="21"/>
     </row>
     <row r="49" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A49" s="64">
+      <c r="A49" s="70">
         <v>10.199999999999999</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E49" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="66"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="55">
         <f>IF(C49&lt;&gt;"",SUM(K49:DN49)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10077,15 +10086,15 @@
       <c r="DN49" s="19"/>
     </row>
     <row r="50" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="67"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="69"/>
       <c r="J50" s="56">
         <f>IF(C49&lt;&gt;"",SUM(K50:DN50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10200,19 +10209,19 @@
       <c r="DN50" s="21"/>
     </row>
     <row r="51" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A51" s="64">
+      <c r="A51" s="70">
         <v>11</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="66"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="55" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DN51)/データ!$D$2,"")</f>
         <v/>
@@ -10327,15 +10336,15 @@
       <c r="DN51" s="19"/>
     </row>
     <row r="52" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="67"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="69"/>
       <c r="J52" s="56" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DN52)/データ!$D$2,"")</f>
         <v/>
@@ -10450,25 +10459,25 @@
       <c r="DN52" s="21"/>
     </row>
     <row r="53" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A53" s="64">
+      <c r="A53" s="70">
         <v>11.1</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64" t="s">
+      <c r="B53" s="70"/>
+      <c r="C53" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="E53" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="65" t="s">
+      <c r="F53" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="66"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="68"/>
       <c r="J53" s="55">
         <f>IF(C53&lt;&gt;"",SUM(K53:DN53)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10609,15 +10618,15 @@
       <c r="DN53" s="19"/>
     </row>
     <row r="54" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="67"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="69"/>
       <c r="J54" s="56">
         <f>IF(C53&lt;&gt;"",SUM(K54:DN54)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10732,23 +10741,23 @@
       <c r="DN54" s="21"/>
     </row>
     <row r="55" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A55" s="64">
+      <c r="A55" s="70">
         <v>11.2</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64" t="s">
+      <c r="B55" s="70"/>
+      <c r="C55" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="66"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="68"/>
       <c r="J55" s="55">
         <f>IF(C55&lt;&gt;"",SUM(K55:DN55)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10889,15 +10898,15 @@
       <c r="DN55" s="19"/>
     </row>
     <row r="56" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="67"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="69"/>
       <c r="J56" s="56">
         <f>IF(C55&lt;&gt;"",SUM(K56:DN56)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11012,23 +11021,23 @@
       <c r="DN56" s="21"/>
     </row>
     <row r="57" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A57" s="64">
+      <c r="A57" s="70">
         <v>11.3</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64" t="s">
+      <c r="B57" s="70"/>
+      <c r="C57" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="E57" s="65" t="s">
+      <c r="E57" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="66"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="68"/>
       <c r="J57" s="55">
         <f>IF(C57&lt;&gt;"",SUM(K57:DN57)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11145,15 +11154,15 @@
       <c r="DN57" s="19"/>
     </row>
     <row r="58" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="67"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="69"/>
       <c r="J58" s="56">
         <f>IF(C57&lt;&gt;"",SUM(K58:DN58)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11268,23 +11277,23 @@
       <c r="DN58" s="21"/>
     </row>
     <row r="59" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A59" s="64">
+      <c r="A59" s="70">
         <v>11.4</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64" t="s">
+      <c r="B59" s="70"/>
+      <c r="C59" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="64" t="s">
+      <c r="D59" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="65" t="s">
+      <c r="E59" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="66"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="68"/>
       <c r="J59" s="55">
         <f>IF(C59&lt;&gt;"",SUM(K59:DN59)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11401,15 +11410,15 @@
       <c r="DN59" s="19"/>
     </row>
     <row r="60" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="67"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="69"/>
       <c r="J60" s="56">
         <f>IF(C59&lt;&gt;"",SUM(K60:DN60)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11524,15 +11533,15 @@
       <c r="DN60" s="21"/>
     </row>
     <row r="61" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="66"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="68"/>
       <c r="J61" s="55" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DN61)/データ!$D$2,"")</f>
         <v/>
@@ -11647,15 +11656,15 @@
       <c r="DN61" s="19"/>
     </row>
     <row r="62" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="67"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="69"/>
       <c r="J62" s="56" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DN62)/データ!$D$2,"")</f>
         <v/>
@@ -11770,15 +11779,15 @@
       <c r="DN62" s="21"/>
     </row>
     <row r="63" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="66"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="68"/>
       <c r="J63" s="55" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DN63)/データ!$D$2,"")</f>
         <v/>
@@ -11893,15 +11902,15 @@
       <c r="DN63" s="19"/>
     </row>
     <row r="64" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="67"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="69"/>
       <c r="J64" s="56" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DN64)/データ!$D$2,"")</f>
         <v/>
@@ -12016,15 +12025,15 @@
       <c r="DN64" s="21"/>
     </row>
     <row r="65" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="66"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="68"/>
       <c r="J65" s="55" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DN65)/データ!$D$2,"")</f>
         <v/>
@@ -12139,15 +12148,15 @@
       <c r="DN65" s="19"/>
     </row>
     <row r="66" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="67"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="69"/>
       <c r="J66" s="56" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DN66)/データ!$D$2,"")</f>
         <v/>
@@ -12262,15 +12271,15 @@
       <c r="DN66" s="21"/>
     </row>
     <row r="67" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="66"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="68"/>
       <c r="J67" s="55" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DN67)/データ!$D$2,"")</f>
         <v/>
@@ -12385,15 +12394,15 @@
       <c r="DN67" s="19"/>
     </row>
     <row r="68" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A68" s="64"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="67"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="69"/>
       <c r="J68" s="56" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DN68)/データ!$D$2,"")</f>
         <v/>
@@ -12508,15 +12517,15 @@
       <c r="DN68" s="21"/>
     </row>
     <row r="69" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="66"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="68"/>
       <c r="J69" s="55" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DN69)/データ!$D$2,"")</f>
         <v/>
@@ -12631,15 +12640,15 @@
       <c r="DN69" s="19"/>
     </row>
     <row r="70" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="67"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="69"/>
       <c r="J70" s="56" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DN70)/データ!$D$2,"")</f>
         <v/>
@@ -12754,15 +12763,15 @@
       <c r="DN70" s="21"/>
     </row>
     <row r="71" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A71" s="68"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="66"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="68"/>
       <c r="J71" s="55" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DN71)/データ!$D$2,"")</f>
         <v/>
@@ -12877,15 +12886,15 @@
       <c r="DN71" s="19"/>
     </row>
     <row r="72" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A72" s="69"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="67"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="69"/>
       <c r="J72" s="56" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DN72)/データ!$D$2,"")</f>
         <v/>
@@ -13000,15 +13009,15 @@
       <c r="DN72" s="21"/>
     </row>
     <row r="73" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="66"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="68"/>
       <c r="J73" s="55" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DN73)/データ!$D$2,"")</f>
         <v/>
@@ -13123,15 +13132,15 @@
       <c r="DN73" s="19"/>
     </row>
     <row r="74" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A74" s="64"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="67"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="69"/>
       <c r="J74" s="56" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DN74)/データ!$D$2,"")</f>
         <v/>
@@ -13246,15 +13255,15 @@
       <c r="DN74" s="21"/>
     </row>
     <row r="75" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="66"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="68"/>
       <c r="J75" s="55" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DN75)/データ!$D$2,"")</f>
         <v/>
@@ -13369,15 +13378,15 @@
       <c r="DN75" s="19"/>
     </row>
     <row r="76" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A76" s="64"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="67"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="69"/>
       <c r="J76" s="56" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DN76)/データ!$D$2,"")</f>
         <v/>
@@ -13492,15 +13501,15 @@
       <c r="DN76" s="21"/>
     </row>
     <row r="77" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="66"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="68"/>
       <c r="J77" s="55" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DN77)/データ!$D$2,"")</f>
         <v/>
@@ -13615,15 +13624,15 @@
       <c r="DN77" s="19"/>
     </row>
     <row r="78" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A78" s="69"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="67"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="69"/>
       <c r="J78" s="56" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DN78)/データ!$D$2,"")</f>
         <v/>
@@ -13738,15 +13747,15 @@
       <c r="DN78" s="21"/>
     </row>
     <row r="79" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="66"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="68"/>
       <c r="J79" s="55" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DN79)/データ!$D$2,"")</f>
         <v/>
@@ -13861,15 +13870,15 @@
       <c r="DN79" s="19"/>
     </row>
     <row r="80" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A80" s="69"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="67"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="69"/>
       <c r="J80" s="56" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DN80)/データ!$D$2,"")</f>
         <v/>
@@ -13984,15 +13993,15 @@
       <c r="DN80" s="21"/>
     </row>
     <row r="81" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="66"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="68"/>
       <c r="J81" s="55" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DN81)/データ!$D$2,"")</f>
         <v/>
@@ -14107,15 +14116,15 @@
       <c r="DN81" s="19"/>
     </row>
     <row r="82" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="67"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="69"/>
       <c r="J82" s="56" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DN82)/データ!$D$2,"")</f>
         <v/>
@@ -14230,15 +14239,15 @@
       <c r="DN82" s="21"/>
     </row>
     <row r="83" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="68"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="66"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="68"/>
       <c r="J83" s="55" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DN83)/データ!$D$2,"")</f>
         <v/>
@@ -14353,15 +14362,15 @@
       <c r="DN83" s="19"/>
     </row>
     <row r="84" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="67"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="69"/>
       <c r="J84" s="56" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DN84)/データ!$D$2,"")</f>
         <v/>
@@ -14476,15 +14485,15 @@
       <c r="DN84" s="21"/>
     </row>
     <row r="85" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A85" s="68"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="66"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="68"/>
       <c r="J85" s="55" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DN85)/データ!$D$2,"")</f>
         <v/>
@@ -14599,15 +14608,15 @@
       <c r="DN85" s="19"/>
     </row>
     <row r="86" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="67"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="69"/>
       <c r="J86" s="56" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DN86)/データ!$D$2,"")</f>
         <v/>
@@ -14722,15 +14731,15 @@
       <c r="DN86" s="21"/>
     </row>
     <row r="87" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="68"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="66"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="68"/>
       <c r="J87" s="55" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DN87)/データ!$D$2,"")</f>
         <v/>
@@ -14845,15 +14854,15 @@
       <c r="DN87" s="19"/>
     </row>
     <row r="88" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="67"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="69"/>
       <c r="J88" s="56" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DN88)/データ!$D$2,"")</f>
         <v/>
@@ -14968,15 +14977,15 @@
       <c r="DN88" s="21"/>
     </row>
     <row r="89" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="68"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="66"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="68"/>
       <c r="J89" s="55" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DN89)/データ!$D$2,"")</f>
         <v/>
@@ -15091,15 +15100,15 @@
       <c r="DN89" s="19"/>
     </row>
     <row r="90" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="67"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="69"/>
       <c r="J90" s="56" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DN90)/データ!$D$2,"")</f>
         <v/>
@@ -15214,15 +15223,15 @@
       <c r="DN90" s="21"/>
     </row>
     <row r="91" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A91" s="68"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="66"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="68"/>
       <c r="J91" s="55" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DN91)/データ!$D$2,"")</f>
         <v/>
@@ -15337,15 +15346,15 @@
       <c r="DN91" s="19"/>
     </row>
     <row r="92" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="67"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="69"/>
       <c r="J92" s="56" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DN92)/データ!$D$2,"")</f>
         <v/>
@@ -15460,15 +15469,15 @@
       <c r="DN92" s="21"/>
     </row>
     <row r="93" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A93" s="68"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="66"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="68"/>
       <c r="J93" s="55" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DN93)/データ!$D$2,"")</f>
         <v/>
@@ -15583,15 +15592,15 @@
       <c r="DN93" s="19"/>
     </row>
     <row r="94" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="67"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="69"/>
       <c r="J94" s="56" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DN94)/データ!$D$2,"")</f>
         <v/>
@@ -15706,15 +15715,15 @@
       <c r="DN94" s="21"/>
     </row>
     <row r="95" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="68"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="66"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="68"/>
       <c r="J95" s="55" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DN95)/データ!$D$2,"")</f>
         <v/>
@@ -15829,15 +15838,15 @@
       <c r="DN95" s="19"/>
     </row>
     <row r="96" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="67"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="69"/>
       <c r="J96" s="56" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DN96)/データ!$D$2,"")</f>
         <v/>
@@ -15952,15 +15961,15 @@
       <c r="DN96" s="21"/>
     </row>
     <row r="97" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A97" s="68"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="66"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="68"/>
       <c r="J97" s="55" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DN97)/データ!$D$2,"")</f>
         <v/>
@@ -16075,15 +16084,15 @@
       <c r="DN97" s="19"/>
     </row>
     <row r="98" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="67"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="69"/>
       <c r="J98" s="56" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DN98)/データ!$D$2,"")</f>
         <v/>
@@ -16198,15 +16207,15 @@
       <c r="DN98" s="21"/>
     </row>
     <row r="99" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A99" s="68"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="66"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="68"/>
       <c r="J99" s="55" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DN99)/データ!$D$2,"")</f>
         <v/>
@@ -16321,15 +16330,15 @@
       <c r="DN99" s="19"/>
     </row>
     <row r="100" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A100" s="69"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="71"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="67"/>
+      <c r="A100" s="65"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="69"/>
       <c r="J100" s="56" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DN100)/データ!$D$2,"")</f>
         <v/>
@@ -16444,15 +16453,15 @@
       <c r="DN100" s="21"/>
     </row>
     <row r="101" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="68"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="66"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="68"/>
       <c r="J101" s="55" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DN101)/データ!$D$2,"")</f>
         <v/>
@@ -16567,15 +16576,15 @@
       <c r="DN101" s="19"/>
     </row>
     <row r="102" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A102" s="69"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="71"/>
-      <c r="I102" s="67"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="69"/>
       <c r="J102" s="56" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DN102)/データ!$D$2,"")</f>
         <v/>
@@ -16690,15 +16699,15 @@
       <c r="DN102" s="21"/>
     </row>
     <row r="103" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A103" s="68"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="66"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="68"/>
       <c r="J103" s="55" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DN103)/データ!$D$2,"")</f>
         <v/>
@@ -16813,15 +16822,15 @@
       <c r="DN103" s="19"/>
     </row>
     <row r="104" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A104" s="69"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="71"/>
-      <c r="I104" s="67"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="69"/>
       <c r="J104" s="56" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DN104)/データ!$D$2,"")</f>
         <v/>
@@ -16936,15 +16945,15 @@
       <c r="DN104" s="21"/>
     </row>
     <row r="105" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A105" s="64"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="66"/>
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="68"/>
       <c r="J105" s="55" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DN105)/データ!$D$2,"")</f>
         <v/>
@@ -17059,15 +17068,15 @@
       <c r="DN105" s="19"/>
     </row>
     <row r="106" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A106" s="64"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="67"/>
+      <c r="A106" s="70"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="69"/>
       <c r="J106" s="56" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DN106)/データ!$D$2,"")</f>
         <v/>
@@ -17182,15 +17191,15 @@
       <c r="DN106" s="21"/>
     </row>
     <row r="107" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A107" s="64"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="66"/>
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="68"/>
       <c r="J107" s="55" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DN107)/データ!$D$2,"")</f>
         <v/>
@@ -17305,15 +17314,15 @@
       <c r="DN107" s="19"/>
     </row>
     <row r="108" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A108" s="64"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="67"/>
+      <c r="A108" s="70"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="69"/>
       <c r="J108" s="56" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DN108)/データ!$D$2,"")</f>
         <v/>
@@ -17428,15 +17437,15 @@
       <c r="DN108" s="21"/>
     </row>
     <row r="109" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A109" s="64"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="64"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="66"/>
+      <c r="A109" s="70"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="68"/>
       <c r="J109" s="55" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DN109)/データ!$D$2,"")</f>
         <v/>
@@ -17551,15 +17560,15 @@
       <c r="DN109" s="19"/>
     </row>
     <row r="110" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A110" s="64"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="67"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="69"/>
       <c r="J110" s="56" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DN110)/データ!$D$2,"")</f>
         <v/>
@@ -17674,15 +17683,15 @@
       <c r="DN110" s="21"/>
     </row>
     <row r="111" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A111" s="64"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="66"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="71"/>
+      <c r="I111" s="68"/>
       <c r="J111" s="55" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DN111)/データ!$D$2,"")</f>
         <v/>
@@ -17797,15 +17806,15 @@
       <c r="DN111" s="19"/>
     </row>
     <row r="112" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A112" s="64"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="67"/>
+      <c r="A112" s="70"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="69"/>
       <c r="J112" s="56" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DN112)/データ!$D$2,"")</f>
         <v/>
@@ -17920,15 +17929,15 @@
       <c r="DN112" s="21"/>
     </row>
     <row r="113" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A113" s="64"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="64"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="66"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="68"/>
       <c r="J113" s="55" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DN113)/データ!$D$2,"")</f>
         <v/>
@@ -18043,15 +18052,15 @@
       <c r="DN113" s="19"/>
     </row>
     <row r="114" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="65"/>
-      <c r="F114" s="65"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
-      <c r="I114" s="67"/>
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="69"/>
       <c r="J114" s="56" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DN114)/データ!$D$2,"")</f>
         <v/>
@@ -18166,15 +18175,15 @@
       <c r="DN114" s="21"/>
     </row>
     <row r="115" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="66"/>
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
+      <c r="I115" s="68"/>
       <c r="J115" s="55" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DN115)/データ!$D$2,"")</f>
         <v/>
@@ -18289,15 +18298,15 @@
       <c r="DN115" s="19"/>
     </row>
     <row r="116" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="65"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="67"/>
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="69"/>
       <c r="J116" s="56" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DN116)/データ!$D$2,"")</f>
         <v/>
@@ -18412,15 +18421,15 @@
       <c r="DN116" s="21"/>
     </row>
     <row r="117" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="65"/>
-      <c r="F117" s="65"/>
-      <c r="G117" s="65"/>
-      <c r="H117" s="65"/>
-      <c r="I117" s="66"/>
+      <c r="A117" s="70"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="68"/>
       <c r="J117" s="55" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DN117)/データ!$D$2,"")</f>
         <v/>
@@ -18535,15 +18544,15 @@
       <c r="DN117" s="19"/>
     </row>
     <row r="118" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A118" s="64"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="65"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="65"/>
-      <c r="I118" s="67"/>
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="69"/>
       <c r="J118" s="56" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DN118)/データ!$D$2,"")</f>
         <v/>
@@ -18658,15 +18667,15 @@
       <c r="DN118" s="21"/>
     </row>
     <row r="119" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A119" s="64"/>
-      <c r="B119" s="64"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="65"/>
-      <c r="F119" s="65"/>
-      <c r="G119" s="65"/>
-      <c r="H119" s="65"/>
-      <c r="I119" s="66"/>
+      <c r="A119" s="70"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="68"/>
       <c r="J119" s="55" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DN119)/データ!$D$2,"")</f>
         <v/>
@@ -18781,15 +18790,15 @@
       <c r="DN119" s="19"/>
     </row>
     <row r="120" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A120" s="64"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="65"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="65"/>
-      <c r="H120" s="65"/>
-      <c r="I120" s="67"/>
+      <c r="A120" s="70"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="71"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="69"/>
       <c r="J120" s="56" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DN120)/データ!$D$2,"")</f>
         <v/>
@@ -18904,15 +18913,15 @@
       <c r="DN120" s="21"/>
     </row>
     <row r="121" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A121" s="64"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="65"/>
-      <c r="G121" s="65"/>
-      <c r="H121" s="65"/>
-      <c r="I121" s="66"/>
+      <c r="A121" s="70"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="68"/>
       <c r="J121" s="55" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DN121)/データ!$D$2,"")</f>
         <v/>
@@ -19027,15 +19036,15 @@
       <c r="DN121" s="19"/>
     </row>
     <row r="122" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A122" s="64"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="65"/>
-      <c r="F122" s="65"/>
-      <c r="G122" s="65"/>
-      <c r="H122" s="65"/>
-      <c r="I122" s="67"/>
+      <c r="A122" s="70"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="70"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="69"/>
       <c r="J122" s="56" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DN122)/データ!$D$2,"")</f>
         <v/>
@@ -19150,15 +19159,15 @@
       <c r="DN122" s="21"/>
     </row>
     <row r="123" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A123" s="64"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="64"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
-      <c r="I123" s="66"/>
+      <c r="A123" s="70"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="68"/>
       <c r="J123" s="55" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DN123)/データ!$D$2,"")</f>
         <v/>
@@ -19273,15 +19282,15 @@
       <c r="DN123" s="19"/>
     </row>
     <row r="124" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A124" s="64"/>
-      <c r="B124" s="64"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="64"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="67"/>
+      <c r="A124" s="70"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="69"/>
       <c r="J124" s="56" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DN124)/データ!$D$2,"")</f>
         <v/>
@@ -19396,15 +19405,15 @@
       <c r="DN124" s="21"/>
     </row>
     <row r="125" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A125" s="64"/>
-      <c r="B125" s="64"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="65"/>
-      <c r="F125" s="65"/>
-      <c r="G125" s="65"/>
-      <c r="H125" s="65"/>
-      <c r="I125" s="66"/>
+      <c r="A125" s="70"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="70"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="68"/>
       <c r="J125" s="55" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DN125)/データ!$D$2,"")</f>
         <v/>
@@ -19519,15 +19528,15 @@
       <c r="DN125" s="19"/>
     </row>
     <row r="126" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A126" s="64"/>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="65"/>
-      <c r="I126" s="67"/>
+      <c r="A126" s="70"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="70"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="69"/>
       <c r="J126" s="56" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DN126)/データ!$D$2,"")</f>
         <v/>
@@ -19642,15 +19651,15 @@
       <c r="DN126" s="21"/>
     </row>
     <row r="127" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A127" s="68"/>
-      <c r="B127" s="68"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="70"/>
-      <c r="F127" s="70"/>
-      <c r="G127" s="70"/>
-      <c r="H127" s="70"/>
-      <c r="I127" s="66"/>
+      <c r="A127" s="64"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="68"/>
       <c r="J127" s="55" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K127:DN127)/データ!$D$2,"")</f>
         <v/>
@@ -19765,15 +19774,15 @@
       <c r="DN127" s="19"/>
     </row>
     <row r="128" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A128" s="69"/>
-      <c r="B128" s="69"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="67"/>
+      <c r="A128" s="65"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="69"/>
       <c r="J128" s="56" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K128:DN128)/データ!$D$2,"")</f>
         <v/>
@@ -19888,15 +19897,15 @@
       <c r="DN128" s="21"/>
     </row>
     <row r="129" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A129" s="64"/>
-      <c r="B129" s="64"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="65"/>
-      <c r="G129" s="65"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="66"/>
+      <c r="A129" s="70"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="68"/>
       <c r="J129" s="55" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K129:DN129)/データ!$D$2,"")</f>
         <v/>
@@ -20011,15 +20020,15 @@
       <c r="DN129" s="19"/>
     </row>
     <row r="130" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A130" s="64"/>
-      <c r="B130" s="64"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="65"/>
-      <c r="H130" s="65"/>
-      <c r="I130" s="67"/>
+      <c r="A130" s="70"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="71"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="69"/>
       <c r="J130" s="56" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K130:DN130)/データ!$D$2,"")</f>
         <v/>
@@ -20134,15 +20143,15 @@
       <c r="DN130" s="21"/>
     </row>
     <row r="131" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A131" s="64"/>
-      <c r="B131" s="64"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="66"/>
+      <c r="A131" s="70"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="70"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="68"/>
       <c r="J131" s="55" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K131:DN131)/データ!$D$2,"")</f>
         <v/>
@@ -20257,15 +20266,15 @@
       <c r="DN131" s="19"/>
     </row>
     <row r="132" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A132" s="64"/>
-      <c r="B132" s="64"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
-      <c r="E132" s="65"/>
-      <c r="F132" s="65"/>
-      <c r="G132" s="65"/>
-      <c r="H132" s="65"/>
-      <c r="I132" s="67"/>
+      <c r="A132" s="70"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="70"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="69"/>
       <c r="J132" s="56" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K132:DN132)/データ!$D$2,"")</f>
         <v/>
@@ -20380,15 +20389,15 @@
       <c r="DN132" s="21"/>
     </row>
     <row r="133" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A133" s="64"/>
-      <c r="B133" s="64"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="64"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="65"/>
-      <c r="I133" s="66"/>
+      <c r="A133" s="70"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="68"/>
       <c r="J133" s="55" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K133:DN133)/データ!$D$2,"")</f>
         <v/>
@@ -20503,15 +20512,15 @@
       <c r="DN133" s="19"/>
     </row>
     <row r="134" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A134" s="64"/>
-      <c r="B134" s="64"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="65"/>
-      <c r="F134" s="65"/>
-      <c r="G134" s="65"/>
-      <c r="H134" s="65"/>
-      <c r="I134" s="67"/>
+      <c r="A134" s="70"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="69"/>
       <c r="J134" s="56" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K134:DN134)/データ!$D$2,"")</f>
         <v/>
@@ -20626,15 +20635,15 @@
       <c r="DN134" s="21"/>
     </row>
     <row r="135" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A135" s="64"/>
-      <c r="B135" s="64"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="64"/>
-      <c r="E135" s="65"/>
-      <c r="F135" s="65"/>
-      <c r="G135" s="65"/>
-      <c r="H135" s="65"/>
-      <c r="I135" s="66"/>
+      <c r="A135" s="70"/>
+      <c r="B135" s="70"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="70"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="71"/>
+      <c r="G135" s="71"/>
+      <c r="H135" s="71"/>
+      <c r="I135" s="68"/>
       <c r="J135" s="55" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K135:DN135)/データ!$D$2,"")</f>
         <v/>
@@ -20749,15 +20758,15 @@
       <c r="DN135" s="19"/>
     </row>
     <row r="136" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A136" s="64"/>
-      <c r="B136" s="64"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="64"/>
-      <c r="E136" s="65"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="65"/>
-      <c r="I136" s="67"/>
+      <c r="A136" s="70"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="71"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="71"/>
+      <c r="H136" s="71"/>
+      <c r="I136" s="69"/>
       <c r="J136" s="56" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K136:DN136)/データ!$D$2,"")</f>
         <v/>
@@ -20872,15 +20881,15 @@
       <c r="DN136" s="21"/>
     </row>
     <row r="137" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A137" s="64"/>
-      <c r="B137" s="64"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="64"/>
-      <c r="E137" s="65"/>
-      <c r="F137" s="65"/>
-      <c r="G137" s="65"/>
-      <c r="H137" s="65"/>
-      <c r="I137" s="66"/>
+      <c r="A137" s="70"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="70"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="71"/>
+      <c r="G137" s="71"/>
+      <c r="H137" s="71"/>
+      <c r="I137" s="68"/>
       <c r="J137" s="55" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K137:DN137)/データ!$D$2,"")</f>
         <v/>
@@ -20995,15 +21004,15 @@
       <c r="DN137" s="19"/>
     </row>
     <row r="138" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A138" s="64"/>
-      <c r="B138" s="64"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="65"/>
-      <c r="G138" s="65"/>
-      <c r="H138" s="65"/>
-      <c r="I138" s="67"/>
+      <c r="A138" s="70"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="71"/>
+      <c r="I138" s="69"/>
       <c r="J138" s="56" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K138:DN138)/データ!$D$2,"")</f>
         <v/>
@@ -21118,15 +21127,15 @@
       <c r="DN138" s="21"/>
     </row>
     <row r="139" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A139" s="64"/>
-      <c r="B139" s="64"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="66"/>
+      <c r="A139" s="70"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="71"/>
+      <c r="H139" s="71"/>
+      <c r="I139" s="68"/>
       <c r="J139" s="55" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K139:DN139)/データ!$D$2,"")</f>
         <v/>
@@ -21241,15 +21250,15 @@
       <c r="DN139" s="19"/>
     </row>
     <row r="140" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A140" s="64"/>
-      <c r="B140" s="64"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="65"/>
-      <c r="I140" s="67"/>
+      <c r="A140" s="70"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="70"/>
+      <c r="D140" s="70"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="69"/>
       <c r="J140" s="56" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K140:DN140)/データ!$D$2,"")</f>
         <v/>
@@ -21364,15 +21373,15 @@
       <c r="DN140" s="21"/>
     </row>
     <row r="141" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A141" s="64"/>
-      <c r="B141" s="64"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="66"/>
+      <c r="A141" s="70"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="70"/>
+      <c r="D141" s="70"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="71"/>
+      <c r="H141" s="71"/>
+      <c r="I141" s="68"/>
       <c r="J141" s="55" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K141:DN141)/データ!$D$2,"")</f>
         <v/>
@@ -21487,15 +21496,15 @@
       <c r="DN141" s="19"/>
     </row>
     <row r="142" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A142" s="64"/>
-      <c r="B142" s="64"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="64"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="67"/>
+      <c r="A142" s="70"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="71"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="71"/>
+      <c r="I142" s="69"/>
       <c r="J142" s="56" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K142:DN142)/データ!$D$2,"")</f>
         <v/>
@@ -21610,15 +21619,15 @@
       <c r="DN142" s="21"/>
     </row>
     <row r="143" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A143" s="64"/>
-      <c r="B143" s="64"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="65"/>
-      <c r="G143" s="65"/>
-      <c r="H143" s="65"/>
-      <c r="I143" s="66"/>
+      <c r="A143" s="70"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="71"/>
+      <c r="G143" s="71"/>
+      <c r="H143" s="71"/>
+      <c r="I143" s="68"/>
       <c r="J143" s="55" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K143:DN143)/データ!$D$2,"")</f>
         <v/>
@@ -21733,15 +21742,15 @@
       <c r="DN143" s="19"/>
     </row>
     <row r="144" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A144" s="64"/>
-      <c r="B144" s="64"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="65"/>
-      <c r="G144" s="65"/>
-      <c r="H144" s="65"/>
-      <c r="I144" s="67"/>
+      <c r="A144" s="70"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="71"/>
+      <c r="I144" s="69"/>
       <c r="J144" s="56" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K144:DN144)/データ!$D$2,"")</f>
         <v/>
@@ -21856,15 +21865,15 @@
       <c r="DN144" s="21"/>
     </row>
     <row r="145" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A145" s="64"/>
-      <c r="B145" s="64"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="65"/>
-      <c r="F145" s="65"/>
-      <c r="G145" s="65"/>
-      <c r="H145" s="65"/>
-      <c r="I145" s="66"/>
+      <c r="A145" s="70"/>
+      <c r="B145" s="70"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="71"/>
+      <c r="H145" s="71"/>
+      <c r="I145" s="68"/>
       <c r="J145" s="55" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K145:DN145)/データ!$D$2,"")</f>
         <v/>
@@ -21979,15 +21988,15 @@
       <c r="DN145" s="19"/>
     </row>
     <row r="146" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A146" s="64"/>
-      <c r="B146" s="64"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="64"/>
-      <c r="E146" s="65"/>
-      <c r="F146" s="65"/>
-      <c r="G146" s="65"/>
-      <c r="H146" s="65"/>
-      <c r="I146" s="67"/>
+      <c r="A146" s="70"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="70"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="69"/>
       <c r="J146" s="56" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K146:DN146)/データ!$D$2,"")</f>
         <v/>
@@ -22102,15 +22111,15 @@
       <c r="DN146" s="21"/>
     </row>
     <row r="147" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A147" s="68"/>
-      <c r="B147" s="68"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="70"/>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
-      <c r="I147" s="66"/>
+      <c r="A147" s="64"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="66"/>
+      <c r="G147" s="66"/>
+      <c r="H147" s="66"/>
+      <c r="I147" s="68"/>
       <c r="J147" s="55" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K147:DN147)/データ!$D$2,"")</f>
         <v/>
@@ -22225,15 +22234,15 @@
       <c r="DN147" s="19"/>
     </row>
     <row r="148" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A148" s="69"/>
-      <c r="B148" s="69"/>
-      <c r="C148" s="69"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="71"/>
-      <c r="F148" s="71"/>
-      <c r="G148" s="71"/>
-      <c r="H148" s="71"/>
-      <c r="I148" s="67"/>
+      <c r="A148" s="65"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="67"/>
+      <c r="G148" s="67"/>
+      <c r="H148" s="67"/>
+      <c r="I148" s="69"/>
       <c r="J148" s="56" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K148:DN148)/データ!$D$2,"")</f>
         <v/>
@@ -22348,15 +22357,15 @@
       <c r="DN148" s="21"/>
     </row>
     <row r="149" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A149" s="64"/>
-      <c r="B149" s="64"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="64"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="65"/>
-      <c r="G149" s="65"/>
-      <c r="H149" s="65"/>
-      <c r="I149" s="66"/>
+      <c r="A149" s="70"/>
+      <c r="B149" s="70"/>
+      <c r="C149" s="70"/>
+      <c r="D149" s="70"/>
+      <c r="E149" s="71"/>
+      <c r="F149" s="71"/>
+      <c r="G149" s="71"/>
+      <c r="H149" s="71"/>
+      <c r="I149" s="68"/>
       <c r="J149" s="55" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K149:DN149)/データ!$D$2,"")</f>
         <v/>
@@ -22471,15 +22480,15 @@
       <c r="DN149" s="19"/>
     </row>
     <row r="150" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A150" s="64"/>
-      <c r="B150" s="64"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="64"/>
-      <c r="E150" s="65"/>
-      <c r="F150" s="65"/>
-      <c r="G150" s="65"/>
-      <c r="H150" s="65"/>
-      <c r="I150" s="67"/>
+      <c r="A150" s="70"/>
+      <c r="B150" s="70"/>
+      <c r="C150" s="70"/>
+      <c r="D150" s="70"/>
+      <c r="E150" s="71"/>
+      <c r="F150" s="71"/>
+      <c r="G150" s="71"/>
+      <c r="H150" s="71"/>
+      <c r="I150" s="69"/>
       <c r="J150" s="56" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K150:DN150)/データ!$D$2,"")</f>
         <v/>
@@ -22594,15 +22603,15 @@
       <c r="DN150" s="21"/>
     </row>
     <row r="151" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A151" s="64"/>
-      <c r="B151" s="64"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="65"/>
-      <c r="G151" s="65"/>
-      <c r="H151" s="65"/>
-      <c r="I151" s="66"/>
+      <c r="A151" s="70"/>
+      <c r="B151" s="70"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="70"/>
+      <c r="E151" s="71"/>
+      <c r="F151" s="71"/>
+      <c r="G151" s="71"/>
+      <c r="H151" s="71"/>
+      <c r="I151" s="68"/>
       <c r="J151" s="55" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K151:DN151)/データ!$D$2,"")</f>
         <v/>
@@ -22717,15 +22726,15 @@
       <c r="DN151" s="19"/>
     </row>
     <row r="152" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A152" s="64"/>
-      <c r="B152" s="64"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="64"/>
-      <c r="E152" s="65"/>
-      <c r="F152" s="65"/>
-      <c r="G152" s="65"/>
-      <c r="H152" s="65"/>
-      <c r="I152" s="67"/>
+      <c r="A152" s="70"/>
+      <c r="B152" s="70"/>
+      <c r="C152" s="70"/>
+      <c r="D152" s="70"/>
+      <c r="E152" s="71"/>
+      <c r="F152" s="71"/>
+      <c r="G152" s="71"/>
+      <c r="H152" s="71"/>
+      <c r="I152" s="69"/>
       <c r="J152" s="56" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K152:DN152)/データ!$D$2,"")</f>
         <v/>
@@ -56784,366 +56793,302 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="680">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -57168,302 +57113,366 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K157:DN157 K4:DN28 K35:DN152">
